--- a/Code/Results/Cases/Case_4_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.14329360156659</v>
+        <v>27.74653094557529</v>
       </c>
       <c r="C2">
-        <v>13.49311232260212</v>
+        <v>8.002295477005312</v>
       </c>
       <c r="D2">
-        <v>8.591222099322655</v>
+        <v>13.14626756566572</v>
       </c>
       <c r="E2">
-        <v>7.473466861419576</v>
+        <v>12.94890160155014</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.4834685283143</v>
+        <v>65.94053527659115</v>
       </c>
       <c r="H2">
-        <v>16.13685860840974</v>
+        <v>23.36465109646661</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.801160247223144</v>
+        <v>7.970545630622736</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.987153828165461</v>
+        <v>13.70671795778608</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.8238138547066</v>
+        <v>21.32934096539442</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.55276399995797</v>
+        <v>27.44392620247561</v>
       </c>
       <c r="C3">
-        <v>12.5547448983553</v>
+        <v>7.61719194961475</v>
       </c>
       <c r="D3">
-        <v>8.430682353975172</v>
+        <v>13.15658724123946</v>
       </c>
       <c r="E3">
-        <v>7.506465422333187</v>
+        <v>12.9780167384613</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.49988675354671</v>
+        <v>65.76225826713453</v>
       </c>
       <c r="H3">
-        <v>15.87290023374291</v>
+        <v>23.39017951330844</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.804937241473726</v>
+        <v>7.973165359565686</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.766509882145646</v>
+        <v>13.70812507771486</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.10313139647929</v>
+        <v>21.40356120827893</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.54639962198392</v>
+        <v>27.26384658482954</v>
       </c>
       <c r="C4">
-        <v>11.94894466588861</v>
+        <v>7.37261184371141</v>
       </c>
       <c r="D4">
-        <v>8.33688278091372</v>
+        <v>13.16525635019611</v>
       </c>
       <c r="E4">
-        <v>7.529746194512456</v>
+        <v>12.99726767434149</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>52.31155861847617</v>
+        <v>65.67132567530301</v>
       </c>
       <c r="H4">
-        <v>15.72399434191367</v>
+        <v>23.41071208423253</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.807559565173556</v>
+        <v>7.974898548857663</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.634512993161644</v>
+        <v>13.71138630595154</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.27758537362995</v>
+        <v>21.45117735915216</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.12911837886214</v>
+        <v>27.19198097252418</v>
       </c>
       <c r="C5">
-        <v>11.69451318979977</v>
+        <v>7.271048406974987</v>
       </c>
       <c r="D5">
-        <v>8.299850868313012</v>
+        <v>13.16937526748034</v>
       </c>
       <c r="E5">
-        <v>7.539972412156885</v>
+        <v>13.00545854883766</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.83499561485255</v>
+        <v>65.63894034971034</v>
       </c>
       <c r="H5">
-        <v>15.66652199795716</v>
+        <v>23.42029752347036</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.808702376934135</v>
+        <v>7.975636246462995</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.581624554465868</v>
+        <v>13.71331846051798</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.34946183731643</v>
+        <v>21.47109690267346</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.05940642407447</v>
+        <v>27.18014170934904</v>
       </c>
       <c r="C6">
-        <v>11.65180519192062</v>
+        <v>7.254074180271308</v>
       </c>
       <c r="D6">
-        <v>8.293773510228943</v>
+        <v>13.17009459943566</v>
       </c>
       <c r="E6">
-        <v>7.541714545258532</v>
+        <v>13.00683954517147</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.75633503215862</v>
+        <v>65.63384508337516</v>
       </c>
       <c r="H6">
-        <v>15.65716946920649</v>
+        <v>23.42196265278312</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.808896565114247</v>
+        <v>7.975760639407266</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.572897716370097</v>
+        <v>13.71367573011215</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.36144550293888</v>
+        <v>21.47443570952782</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.54080061318535</v>
+        <v>27.26287112973009</v>
       </c>
       <c r="C7">
-        <v>11.94554407592543</v>
+        <v>7.371249584804701</v>
       </c>
       <c r="D7">
-        <v>8.336378539275842</v>
+        <v>13.16530952658044</v>
       </c>
       <c r="E7">
-        <v>7.529881141834631</v>
+        <v>12.99737673798646</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>52.30510003306904</v>
+        <v>65.67086999508754</v>
       </c>
       <c r="H7">
-        <v>15.72320639782491</v>
+        <v>23.41083642899324</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.807574679680884</v>
+        <v>7.974908370450326</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.633796035263305</v>
+        <v>13.71140992111269</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.27855149075808</v>
+        <v>21.45144391169907</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.60121247309087</v>
+        <v>27.64105423300599</v>
       </c>
       <c r="C8">
-        <v>13.17564583913186</v>
+        <v>7.871280280087231</v>
       </c>
       <c r="D8">
-        <v>8.534872676226513</v>
+        <v>13.14934141596401</v>
       </c>
       <c r="E8">
-        <v>7.484205476607721</v>
+        <v>12.95865555760059</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.79352141450775</v>
+        <v>65.87522758148752</v>
       </c>
       <c r="H8">
-        <v>16.04305195768765</v>
+        <v>23.37244310839958</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.802398308023633</v>
+        <v>7.971423075312842</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.910368714466427</v>
+        <v>13.70670586724156</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.91953619405686</v>
+        <v>21.35450861433416</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.39687308644465</v>
+        <v>28.42441975929746</v>
       </c>
       <c r="C9">
-        <v>15.35814201618643</v>
+        <v>8.781918114307134</v>
       </c>
       <c r="D9">
-        <v>8.962402551966777</v>
+        <v>13.13655110881492</v>
       </c>
       <c r="E9">
-        <v>7.419581715084569</v>
+        <v>12.89360761174305</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>59.90031103736217</v>
+        <v>66.42227887300666</v>
       </c>
       <c r="H9">
-        <v>16.77933954476411</v>
+        <v>23.33583625211064</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.794759636261761</v>
+        <v>7.965574912288269</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.479374614615715</v>
+        <v>13.71647875114375</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.23690607985617</v>
+        <v>21.18057477447626</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.03128584499392</v>
+        <v>29.02038063976316</v>
       </c>
       <c r="C10">
-        <v>16.82994666730802</v>
+        <v>9.402327191499715</v>
       </c>
       <c r="D10">
-        <v>9.300653483756241</v>
+        <v>13.13845735341362</v>
       </c>
       <c r="E10">
-        <v>7.388816584656839</v>
+        <v>12.85242660307062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>63.78660509534947</v>
+        <v>66.91207257172829</v>
       </c>
       <c r="H10">
-        <v>17.39342211708562</v>
+        <v>23.33268954078639</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.79085129085473</v>
+        <v>7.961876068862623</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.912857070350487</v>
+        <v>13.73519772092978</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.74549111412745</v>
+        <v>21.06253854997607</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.21890480592233</v>
+        <v>29.29483868187673</v>
       </c>
       <c r="C11">
-        <v>17.47302750180398</v>
+        <v>9.673053638776491</v>
       </c>
       <c r="D11">
-        <v>9.460049618756333</v>
+        <v>13.14177784139085</v>
       </c>
       <c r="E11">
-        <v>7.378826916043378</v>
+        <v>12.83512222302519</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>65.58519090847371</v>
+        <v>67.15358034117219</v>
       </c>
       <c r="H11">
-        <v>17.69026815897875</v>
+        <v>23.33644217542937</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.789490112571287</v>
+        <v>7.960322431834283</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.1134152947443</v>
+        <v>13.74620515406463</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.5234659146308</v>
+        <v>21.01093811371721</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.68578120422079</v>
+        <v>29.39915882953883</v>
       </c>
       <c r="C12">
-        <v>17.71294093104088</v>
+        <v>9.773854751022446</v>
       </c>
       <c r="D12">
-        <v>9.521235245281737</v>
+        <v>13.14338754422771</v>
       </c>
       <c r="E12">
-        <v>7.375655610291099</v>
+        <v>12.82877460519675</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>66.27098333716341</v>
+        <v>67.24768015384464</v>
       </c>
       <c r="H12">
-        <v>17.80534380711347</v>
+        <v>23.33861010104243</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.789039336765168</v>
+        <v>7.959752600621929</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.18986025903331</v>
+        <v>13.75073009710528</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.43955435560966</v>
+        <v>20.99169812432258</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.58549773126695</v>
+        <v>29.37667580245688</v>
       </c>
       <c r="C13">
-        <v>17.66142833349668</v>
+        <v>9.752222689789306</v>
       </c>
       <c r="D13">
-        <v>9.508020488806498</v>
+        <v>13.14302520668762</v>
       </c>
       <c r="E13">
-        <v>7.376310799316856</v>
+        <v>12.83013255812336</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>66.12306984186628</v>
+        <v>67.22729712395193</v>
       </c>
       <c r="H13">
-        <v>17.78043897618146</v>
+        <v>23.33810996379954</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.789133458840058</v>
+        <v>7.959874502086792</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.17337394732434</v>
+        <v>13.74973973638275</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.45761975943259</v>
+        <v>20.9958284786021</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.25743566153479</v>
+        <v>29.30341390186546</v>
       </c>
       <c r="C14">
-        <v>17.49283641014327</v>
+        <v>9.681381344375948</v>
       </c>
       <c r="D14">
-        <v>9.465066630968174</v>
+        <v>13.14190321529997</v>
       </c>
       <c r="E14">
-        <v>7.378553536301189</v>
+        <v>12.8345958904965</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>65.64151484826009</v>
+        <v>67.16126922068224</v>
       </c>
       <c r="H14">
-        <v>17.69968111957997</v>
+        <v>23.33660555679596</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.78945170078886</v>
+        <v>7.960275181047704</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.11969435806275</v>
+        <v>13.74657028628853</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.51655947408669</v>
+        <v>21.00934922339468</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.05570176400117</v>
+        <v>29.25858675518068</v>
       </c>
       <c r="C15">
-        <v>17.38910544212079</v>
+        <v>9.63776366376314</v>
       </c>
       <c r="D15">
-        <v>9.43886479801642</v>
+        <v>13.14126182633456</v>
       </c>
       <c r="E15">
-        <v>7.380008044079413</v>
+        <v>12.83735652084926</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>65.34717307057296</v>
+        <v>67.12116846617172</v>
       </c>
       <c r="H15">
-        <v>17.65056670062982</v>
+        <v>23.33578136479271</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.789655209936782</v>
+        <v>7.960523015906183</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.08687956025903</v>
+        <v>13.7446753007069</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.55268156521742</v>
+        <v>21.01767009865149</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.95446188103389</v>
+        <v>29.00250363836448</v>
       </c>
       <c r="C16">
-        <v>16.78740381113661</v>
+        <v>9.384397488254054</v>
       </c>
       <c r="D16">
-        <v>9.290350191498593</v>
+        <v>13.13828968233036</v>
       </c>
       <c r="E16">
-        <v>7.389552988070037</v>
+        <v>12.85358621377186</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>63.66970223700159</v>
+        <v>66.89666218927519</v>
       </c>
       <c r="H16">
-        <v>17.37438698934701</v>
+        <v>23.33254874600837</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.790949021023867</v>
+        <v>7.96198019387107</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.899818716982542</v>
+        <v>13.73452836746568</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.7600269787595</v>
+        <v>21.06595280524066</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.27754076230443</v>
+        <v>28.84619709148043</v>
       </c>
       <c r="C17">
-        <v>16.41163711410354</v>
+        <v>9.22597126438659</v>
       </c>
       <c r="D17">
-        <v>9.200675471543054</v>
+        <v>13.13709444392535</v>
       </c>
       <c r="E17">
-        <v>7.396458535681274</v>
+        <v>12.86390839169166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>62.64864695894238</v>
+        <v>66.76369512015043</v>
       </c>
       <c r="H17">
-        <v>17.20954160996458</v>
+        <v>23.33189456130786</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.791852607767826</v>
+        <v>7.962907125358981</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.785930517879782</v>
+        <v>13.72894071032449</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.88757803853631</v>
+        <v>21.09610831769949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.88509188358888</v>
+        <v>28.75661481273151</v>
       </c>
       <c r="C18">
-        <v>16.19300336551248</v>
+        <v>9.133769199183844</v>
       </c>
       <c r="D18">
-        <v>9.149614495258547</v>
+        <v>13.13663793408678</v>
       </c>
       <c r="E18">
-        <v>7.400805100393734</v>
+        <v>12.86997996499482</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>62.06422484066846</v>
+        <v>66.68897882210129</v>
       </c>
       <c r="H18">
-        <v>17.1163637046406</v>
+        <v>23.33200618643177</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.792411226797824</v>
+        <v>7.963452415516316</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.720740146816171</v>
+        <v>13.72596152125121</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.96108859595287</v>
+        <v>21.11365022078306</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.75167946237162</v>
+        <v>28.72634179314262</v>
       </c>
       <c r="C19">
-        <v>16.11854229456698</v>
+        <v>9.102367874691748</v>
       </c>
       <c r="D19">
-        <v>9.132414216344959</v>
+        <v>13.13652304670253</v>
       </c>
       <c r="E19">
-        <v>7.402340101594938</v>
+        <v>12.87205881088711</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>61.86683478103118</v>
+        <v>66.66398515611779</v>
       </c>
       <c r="H19">
-        <v>17.0850921425725</v>
+        <v>23.33212772647578</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.792606914570356</v>
+        <v>7.963639128637766</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.698721720735847</v>
+        <v>13.72499317354435</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.98600482466206</v>
+        <v>21.11962352421936</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.34992036479799</v>
+        <v>28.86280363351629</v>
       </c>
       <c r="C20">
-        <v>16.45189579188911</v>
+        <v>9.242948223597844</v>
       </c>
       <c r="D20">
-        <v>9.210167737933613</v>
+        <v>13.13719777851462</v>
       </c>
       <c r="E20">
-        <v>7.395684405346407</v>
+        <v>12.8627956572904</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>62.75704223869503</v>
+        <v>66.7776675375993</v>
       </c>
       <c r="H20">
-        <v>17.22691925783138</v>
+        <v>23.3319136934236</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.791752361535912</v>
+        <v>7.962807195464062</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.798021440576333</v>
+        <v>13.72951124857305</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.87398523365708</v>
+        <v>21.09287780648778</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35395876362063</v>
+        <v>29.32492288456715</v>
       </c>
       <c r="C21">
-        <v>17.54245216262779</v>
+        <v>9.702236217262614</v>
       </c>
       <c r="D21">
-        <v>9.477660507809105</v>
+        <v>13.14222321465297</v>
       </c>
       <c r="E21">
-        <v>7.37787788925769</v>
+        <v>12.83327933573131</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>65.78282830107293</v>
+        <v>67.18059176804533</v>
       </c>
       <c r="H21">
-        <v>17.72332798127606</v>
+        <v>23.33702715831145</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.789356428399732</v>
+        <v>7.960156990307812</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.13544765902704</v>
+        <v>13.74749156548523</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.49924341909412</v>
+        <v>21.00536972157607</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.70184289201192</v>
+        <v>29.62916835455729</v>
       </c>
       <c r="C22">
-        <v>18.23427683093828</v>
+        <v>9.992376827148378</v>
       </c>
       <c r="D22">
-        <v>9.657318142218003</v>
+        <v>13.14756077938177</v>
       </c>
       <c r="E22">
-        <v>7.369824436130537</v>
+        <v>12.81518448627942</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>67.78805180815178</v>
+        <v>67.45932605804943</v>
       </c>
       <c r="H22">
-        <v>18.0633894204822</v>
+        <v>23.3447228528535</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.788170322818541</v>
+        <v>7.958532722326947</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.35889458553611</v>
+        <v>13.7613207097577</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.25526202509212</v>
+        <v>20.94992604773273</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.9855886247761</v>
+        <v>29.46661394259841</v>
       </c>
       <c r="C23">
-        <v>17.86687953684764</v>
+        <v>9.838459289146556</v>
       </c>
       <c r="D23">
-        <v>9.560975850564537</v>
+        <v>13.1445243650333</v>
       </c>
       <c r="E23">
-        <v>7.373781953268224</v>
+        <v>12.82473273988834</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>66.71515004241562</v>
+        <v>67.30916659951743</v>
       </c>
       <c r="H23">
-        <v>17.88040623691493</v>
+        <v>23.34021679623947</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.788766834712864</v>
+        <v>7.959389777983031</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.23936118639215</v>
+        <v>13.75375032412345</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.38541198147977</v>
+        <v>20.97935785628925</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.31720776668644</v>
+        <v>28.85529493528514</v>
       </c>
       <c r="C24">
-        <v>16.43370295803787</v>
+        <v>9.235276426209756</v>
       </c>
       <c r="D24">
-        <v>9.205874747152912</v>
+        <v>13.13715034249356</v>
       </c>
       <c r="E24">
-        <v>7.396033219679119</v>
+        <v>12.86329829709248</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>62.70802866617692</v>
+        <v>66.77134522140588</v>
       </c>
       <c r="H24">
-        <v>17.21905786966599</v>
+        <v>23.33190352475351</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.791797561307446</v>
+        <v>7.962852335189654</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.792554246107162</v>
+        <v>13.72925258164807</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.88012997675521</v>
+        <v>21.09433768167896</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.39708714751653</v>
+        <v>28.20854231779372</v>
       </c>
       <c r="C25">
-        <v>14.79149859805111</v>
+        <v>8.543737374036741</v>
       </c>
       <c r="D25">
-        <v>8.842575737758262</v>
+        <v>13.13802634327413</v>
       </c>
       <c r="E25">
-        <v>7.434246683124729</v>
+        <v>12.91004224277124</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.4952604546305</v>
+        <v>66.25873811184711</v>
       </c>
       <c r="H25">
-        <v>16.56781281376675</v>
+        <v>23.34157933998805</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.796540910912329</v>
+        <v>7.967051759061329</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.322700654343553</v>
+        <v>13.71180454253272</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.41958073267072</v>
+        <v>21.22590887942397</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.74653094557529</v>
+        <v>27.14329360156658</v>
       </c>
       <c r="C2">
-        <v>8.002295477005312</v>
+        <v>13.49311232260216</v>
       </c>
       <c r="D2">
-        <v>13.14626756566572</v>
+        <v>8.591222099322572</v>
       </c>
       <c r="E2">
-        <v>12.94890160155014</v>
+        <v>7.473466861419574</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>65.94053527659115</v>
+        <v>55.4834685283143</v>
       </c>
       <c r="H2">
-        <v>23.36465109646661</v>
+        <v>16.13685860840975</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.970545630622736</v>
+        <v>4.80116024722321</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.70671795778608</v>
+        <v>8.987153828165461</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.32934096539442</v>
+        <v>13.8238138547066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.44392620247561</v>
+        <v>25.55276399995795</v>
       </c>
       <c r="C3">
-        <v>7.61719194961475</v>
+        <v>12.55474489835533</v>
       </c>
       <c r="D3">
-        <v>13.15658724123946</v>
+        <v>8.430682353975048</v>
       </c>
       <c r="E3">
-        <v>12.9780167384613</v>
+        <v>7.506465422333192</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.76225826713453</v>
+        <v>53.49988675354653</v>
       </c>
       <c r="H3">
-        <v>23.39017951330844</v>
+        <v>15.8729002337428</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.973165359565686</v>
+        <v>4.80493724147376</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.70812507771486</v>
+        <v>8.766509882145622</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.40356120827893</v>
+        <v>14.1031313964792</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.26384658482954</v>
+        <v>24.54639962198393</v>
       </c>
       <c r="C4">
-        <v>7.37261184371141</v>
+        <v>11.94894466588863</v>
       </c>
       <c r="D4">
-        <v>13.16525635019611</v>
+        <v>8.336882780913854</v>
       </c>
       <c r="E4">
-        <v>12.99726767434149</v>
+        <v>7.529746194512333</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>65.67132567530301</v>
+        <v>52.31155861847632</v>
       </c>
       <c r="H4">
-        <v>23.41071208423253</v>
+        <v>15.72399434191371</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.974898548857663</v>
+        <v>4.807559565173522</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.71138630595154</v>
+        <v>8.63451299316163</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.45117735915216</v>
+        <v>14.27758537363002</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.19198097252418</v>
+        <v>24.12911837886216</v>
       </c>
       <c r="C5">
-        <v>7.271048406974987</v>
+        <v>11.69451318979974</v>
       </c>
       <c r="D5">
-        <v>13.16937526748034</v>
+        <v>8.299850868313001</v>
       </c>
       <c r="E5">
-        <v>13.00545854883766</v>
+        <v>7.539972412156954</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>65.63894034971034</v>
+        <v>51.83499561485272</v>
       </c>
       <c r="H5">
-        <v>23.42029752347036</v>
+        <v>15.66652199795708</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.975636246462995</v>
+        <v>4.80870237693427</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.71331846051798</v>
+        <v>8.581624554465961</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.47109690267346</v>
+        <v>14.34946183731637</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.18014170934904</v>
+        <v>24.05940642407446</v>
       </c>
       <c r="C6">
-        <v>7.254074180271308</v>
+        <v>11.6518051919206</v>
       </c>
       <c r="D6">
-        <v>13.17009459943566</v>
+        <v>8.293773510228924</v>
       </c>
       <c r="E6">
-        <v>13.00683954517147</v>
+        <v>7.541714545258602</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>65.63384508337516</v>
+        <v>51.75633503215861</v>
       </c>
       <c r="H6">
-        <v>23.42196265278312</v>
+        <v>15.65716946920648</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.975760639407266</v>
+        <v>4.808896565114281</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.71367573011215</v>
+        <v>8.572897716370099</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.47443570952782</v>
+        <v>14.36144550293895</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.26287112973009</v>
+        <v>24.54080061318535</v>
       </c>
       <c r="C7">
-        <v>7.371249584804701</v>
+        <v>11.9455440759254</v>
       </c>
       <c r="D7">
-        <v>13.16530952658044</v>
+        <v>8.336378539275813</v>
       </c>
       <c r="E7">
-        <v>12.99737673798646</v>
+        <v>7.529881141834631</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65.67086999508754</v>
+        <v>52.30510003306914</v>
       </c>
       <c r="H7">
-        <v>23.41083642899324</v>
+        <v>15.72320639782496</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.974908370450326</v>
+        <v>4.807574679680815</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.71140992111269</v>
+        <v>8.633796035263273</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.45144391169907</v>
+        <v>14.27855149075811</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.64105423300599</v>
+        <v>26.60121247309084</v>
       </c>
       <c r="C8">
-        <v>7.871280280087231</v>
+        <v>13.17564583913201</v>
       </c>
       <c r="D8">
-        <v>13.14934141596401</v>
+        <v>8.534872676226591</v>
       </c>
       <c r="E8">
-        <v>12.95865555760059</v>
+        <v>7.484205476607782</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>65.87522758148752</v>
+        <v>54.79352141450755</v>
       </c>
       <c r="H8">
-        <v>23.37244310839958</v>
+        <v>16.04305195768753</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.971423075312842</v>
+        <v>4.802398308023633</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.70670586724156</v>
+        <v>8.910368714466415</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.35450861433416</v>
+        <v>13.91953619405677</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.42441975929746</v>
+        <v>30.39687308644464</v>
       </c>
       <c r="C9">
-        <v>8.781918114307134</v>
+        <v>15.35814201618629</v>
       </c>
       <c r="D9">
-        <v>13.13655110881492</v>
+        <v>8.962402551966683</v>
       </c>
       <c r="E9">
-        <v>12.89360761174305</v>
+        <v>7.419581715084628</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>66.42227887300666</v>
+        <v>59.90031103736219</v>
       </c>
       <c r="H9">
-        <v>23.33583625211064</v>
+        <v>16.77933954476416</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.965574912288269</v>
+        <v>4.79475963626186</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.71647875114375</v>
+        <v>9.479374614615761</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.18057477447626</v>
+        <v>13.2369060798562</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.02038063976316</v>
+        <v>33.03128584499394</v>
       </c>
       <c r="C10">
-        <v>9.402327191499715</v>
+        <v>16.82994666730785</v>
       </c>
       <c r="D10">
-        <v>13.13845735341362</v>
+        <v>9.300653483756109</v>
       </c>
       <c r="E10">
-        <v>12.85242660307062</v>
+        <v>7.388816584656724</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.91207257172829</v>
+        <v>63.78660509534952</v>
       </c>
       <c r="H10">
-        <v>23.33268954078639</v>
+        <v>17.39342211708562</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.961876068862623</v>
+        <v>4.790851290854798</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.73519772092978</v>
+        <v>9.912857070350446</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.06253854997607</v>
+        <v>12.74549111412749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.29483868187673</v>
+        <v>34.21890480592229</v>
       </c>
       <c r="C11">
-        <v>9.673053638776491</v>
+        <v>17.47302750180403</v>
       </c>
       <c r="D11">
-        <v>13.14177784139085</v>
+        <v>9.460049618756333</v>
       </c>
       <c r="E11">
-        <v>12.83512222302519</v>
+        <v>7.378826916043319</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>67.15358034117219</v>
+        <v>65.58519090847378</v>
       </c>
       <c r="H11">
-        <v>23.33644217542937</v>
+        <v>17.6902681589788</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.960322431834283</v>
+        <v>4.789490112571188</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.74620515406463</v>
+        <v>10.11341529474427</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.01093811371721</v>
+        <v>12.52346591463086</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.39915882953883</v>
+        <v>34.6857812042207</v>
       </c>
       <c r="C12">
-        <v>9.773854751022446</v>
+        <v>17.71294093104089</v>
       </c>
       <c r="D12">
-        <v>13.14338754422771</v>
+        <v>9.521235245281733</v>
       </c>
       <c r="E12">
-        <v>12.82877460519675</v>
+        <v>7.375655610291094</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>67.24768015384464</v>
+        <v>66.27098333716336</v>
       </c>
       <c r="H12">
-        <v>23.33861010104243</v>
+        <v>17.80534380711349</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.959752600621929</v>
+        <v>4.789039336765135</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.75073009710528</v>
+        <v>10.18986025903332</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.99169812432258</v>
+        <v>12.43955435560972</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.37667580245688</v>
+        <v>34.58549773126686</v>
       </c>
       <c r="C13">
-        <v>9.752222689789306</v>
+        <v>17.66142833349656</v>
       </c>
       <c r="D13">
-        <v>13.14302520668762</v>
+        <v>9.508020488806505</v>
       </c>
       <c r="E13">
-        <v>12.83013255812336</v>
+        <v>7.376310799316882</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>67.22729712395193</v>
+        <v>66.12306984186624</v>
       </c>
       <c r="H13">
-        <v>23.33810996379954</v>
+        <v>17.78043897618152</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.959874502086792</v>
+        <v>4.789133458840159</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.74973973638275</v>
+        <v>10.17337394732437</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.9958284786021</v>
+        <v>12.45761975943274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.30341390186546</v>
+        <v>34.25743566153487</v>
       </c>
       <c r="C14">
-        <v>9.681381344375948</v>
+        <v>17.49283641014325</v>
       </c>
       <c r="D14">
-        <v>13.14190321529997</v>
+        <v>9.465066630968153</v>
       </c>
       <c r="E14">
-        <v>12.8345958904965</v>
+        <v>7.378553536301233</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>67.16126922068224</v>
+        <v>65.64151484826007</v>
       </c>
       <c r="H14">
-        <v>23.33660555679596</v>
+        <v>17.69968111957989</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.960275181047704</v>
+        <v>4.789451700789028</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.74657028628853</v>
+        <v>10.11969435806276</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.00934922339468</v>
+        <v>12.5165594740866</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.25858675518068</v>
+        <v>34.05570176400118</v>
       </c>
       <c r="C15">
-        <v>9.63776366376314</v>
+        <v>17.38910544212073</v>
       </c>
       <c r="D15">
-        <v>13.14126182633456</v>
+        <v>9.438864798016395</v>
       </c>
       <c r="E15">
-        <v>12.83735652084926</v>
+        <v>7.38000804407946</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>67.12116846617172</v>
+        <v>65.34717307057304</v>
       </c>
       <c r="H15">
-        <v>23.33578136479271</v>
+        <v>17.65056670062985</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.960523015906183</v>
+        <v>4.789655209936852</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.7446753007069</v>
+        <v>10.08687956025903</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.01767009865149</v>
+        <v>12.55268156521745</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.00250363836448</v>
+        <v>32.95446188103389</v>
       </c>
       <c r="C16">
-        <v>9.384397488254054</v>
+        <v>16.78740381113655</v>
       </c>
       <c r="D16">
-        <v>13.13828968233036</v>
+        <v>9.290350191498559</v>
       </c>
       <c r="E16">
-        <v>12.85358621377186</v>
+        <v>7.389552988069929</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>66.89666218927519</v>
+        <v>63.66970223700162</v>
       </c>
       <c r="H16">
-        <v>23.33254874600837</v>
+        <v>17.37438698934698</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.96198019387107</v>
+        <v>4.790949021023798</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.73452836746568</v>
+        <v>9.899818716982525</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.06595280524066</v>
+        <v>12.76002697875947</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.84619709148043</v>
+        <v>32.27754076230441</v>
       </c>
       <c r="C17">
-        <v>9.22597126438659</v>
+        <v>16.41163711410353</v>
       </c>
       <c r="D17">
-        <v>13.13709444392535</v>
+        <v>9.20067547154297</v>
       </c>
       <c r="E17">
-        <v>12.86390839169166</v>
+        <v>7.396458535681329</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>66.76369512015043</v>
+        <v>62.64864695894246</v>
       </c>
       <c r="H17">
-        <v>23.33189456130786</v>
+        <v>17.20954160996464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.962907125358981</v>
+        <v>4.791852607767856</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.72894071032449</v>
+        <v>9.785930517879798</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.09610831769949</v>
+        <v>12.88757803853636</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.75661481273151</v>
+        <v>31.88509188358893</v>
       </c>
       <c r="C18">
-        <v>9.133769199183844</v>
+        <v>16.19300336551259</v>
       </c>
       <c r="D18">
-        <v>13.13663793408678</v>
+        <v>9.149614495258549</v>
       </c>
       <c r="E18">
-        <v>12.86997996499482</v>
+        <v>7.400805100393749</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>66.68897882210129</v>
+        <v>62.0642248406686</v>
       </c>
       <c r="H18">
-        <v>23.33200618643177</v>
+        <v>17.1163637046406</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.963452415516316</v>
+        <v>4.792411226797822</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.72596152125121</v>
+        <v>9.720740146816146</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.11365022078306</v>
+        <v>12.96108859595282</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.72634179314262</v>
+        <v>31.75167946237157</v>
       </c>
       <c r="C19">
-        <v>9.102367874691748</v>
+        <v>16.11854229456695</v>
       </c>
       <c r="D19">
-        <v>13.13652304670253</v>
+        <v>9.132414216344944</v>
       </c>
       <c r="E19">
-        <v>12.87205881088711</v>
+        <v>7.402340101594914</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>66.66398515611779</v>
+        <v>61.86683478103105</v>
       </c>
       <c r="H19">
-        <v>23.33212772647578</v>
+        <v>17.08509214257246</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.963639128637766</v>
+        <v>4.792606914570458</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.72499317354435</v>
+        <v>9.698721720735831</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.11962352421936</v>
+        <v>12.98600482466205</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.86280363351629</v>
+        <v>32.34992036479794</v>
       </c>
       <c r="C20">
-        <v>9.242948223597844</v>
+        <v>16.45189579188893</v>
       </c>
       <c r="D20">
-        <v>13.13719777851462</v>
+        <v>9.210167737933583</v>
       </c>
       <c r="E20">
-        <v>12.8627956572904</v>
+        <v>7.395684405346303</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>66.7776675375993</v>
+        <v>62.75704223869505</v>
       </c>
       <c r="H20">
-        <v>23.3319136934236</v>
+        <v>17.22691925783141</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.962807195464062</v>
+        <v>4.791752361535845</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.72951124857305</v>
+        <v>9.798021440576326</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.09287780648778</v>
+        <v>12.87398523365721</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.32492288456715</v>
+        <v>34.35395876362048</v>
       </c>
       <c r="C21">
-        <v>9.702236217262614</v>
+        <v>17.54245216262788</v>
       </c>
       <c r="D21">
-        <v>13.14222321465297</v>
+        <v>9.477660507809246</v>
       </c>
       <c r="E21">
-        <v>12.83327933573131</v>
+        <v>7.377877889257739</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>67.18059176804533</v>
+        <v>65.78282830107278</v>
       </c>
       <c r="H21">
-        <v>23.33702715831145</v>
+        <v>17.72332798127607</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.960156990307812</v>
+        <v>4.789356428399698</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.74749156548523</v>
+        <v>10.13544765902704</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.00536972157607</v>
+        <v>12.49924341909419</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.62916835455729</v>
+        <v>35.70184289201196</v>
       </c>
       <c r="C22">
-        <v>9.992376827148378</v>
+        <v>18.23427683093833</v>
       </c>
       <c r="D22">
-        <v>13.14756077938177</v>
+        <v>9.657318142217951</v>
       </c>
       <c r="E22">
-        <v>12.81518448627942</v>
+        <v>7.369824436130338</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>67.45932605804943</v>
+        <v>67.78805180815191</v>
       </c>
       <c r="H22">
-        <v>23.3447228528535</v>
+        <v>18.06338942048222</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.958532722326947</v>
+        <v>4.78817032281844</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.7613207097577</v>
+        <v>10.35889458553605</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.94992604773273</v>
+        <v>12.25526202509213</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.46661394259841</v>
+        <v>34.98558862477601</v>
       </c>
       <c r="C23">
-        <v>9.838459289146556</v>
+        <v>17.8668795368473</v>
       </c>
       <c r="D23">
-        <v>13.1445243650333</v>
+        <v>9.560975850564516</v>
       </c>
       <c r="E23">
-        <v>12.82473273988834</v>
+        <v>7.373781953268176</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>67.30916659951743</v>
+        <v>66.71515004241549</v>
       </c>
       <c r="H23">
-        <v>23.34021679623947</v>
+        <v>17.8804062369149</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.959389777983031</v>
+        <v>4.788766834712797</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.75375032412345</v>
+        <v>10.23936118639218</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.97935785628925</v>
+        <v>12.38541198147981</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.85529493528514</v>
+        <v>32.31720776668643</v>
       </c>
       <c r="C24">
-        <v>9.235276426209756</v>
+        <v>16.43370295803791</v>
       </c>
       <c r="D24">
-        <v>13.13715034249356</v>
+        <v>9.205874747152873</v>
       </c>
       <c r="E24">
-        <v>12.86329829709248</v>
+        <v>7.396033219679065</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>66.77134522140588</v>
+        <v>62.70802866617692</v>
       </c>
       <c r="H24">
-        <v>23.33190352475351</v>
+        <v>17.21905786966595</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.962852335189654</v>
+        <v>4.791797561307446</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.72925258164807</v>
+        <v>9.792554246107128</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.09433768167896</v>
+        <v>12.88012997675518</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.20854231779372</v>
+        <v>29.39708714751652</v>
       </c>
       <c r="C25">
-        <v>8.543737374036741</v>
+        <v>14.79149859805098</v>
       </c>
       <c r="D25">
-        <v>13.13802634327413</v>
+        <v>8.842575737758116</v>
       </c>
       <c r="E25">
-        <v>12.91004224277124</v>
+        <v>7.434246683124554</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>66.25873811184711</v>
+        <v>58.4952604546305</v>
       </c>
       <c r="H25">
-        <v>23.34157933998805</v>
+        <v>16.5678128137668</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.967051759061329</v>
+        <v>4.796540910912297</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.71180454253272</v>
+        <v>9.322700654343551</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.22590887942397</v>
+        <v>13.41958073267071</v>
       </c>
       <c r="O25">
         <v>0</v>
